--- a/visuals/top_mid_bot.xlsx
+++ b/visuals/top_mid_bot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spenc\Desktop\UGA_projects\BIA\term_project\bia_term_proj\visuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3B57554-A28A-404A-86A5-069059A0E48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D0A4CD-1DF6-4BC8-8A32-5DACBA5C4E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3520B3A-6DB1-4C1C-A89A-8B98B60BCA4A}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>Iceland</t>
   </si>
   <si>
-    <t>Normay</t>
-  </si>
-  <si>
     <t>Hungary</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Norway</t>
   </si>
 </sst>
 </file>
@@ -609,7 +609,7 @@
   <dimension ref="D4:K11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,13 +667,13 @@
         <v>7.62</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="2">
         <v>5.52</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" s="2">
         <v>3.62</v>
@@ -687,13 +687,13 @@
         <v>7.57</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2">
         <v>5.51</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" s="2">
         <v>3.49</v>
@@ -707,13 +707,13 @@
         <v>7.53</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="2">
         <v>5.48</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="2">
         <v>3.42</v>
@@ -727,13 +727,13 @@
         <v>7.52</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="2">
         <v>5.46</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" s="2">
         <v>3.28</v>
@@ -741,19 +741,19 @@
     </row>
     <row r="11" spans="4:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4">
         <v>7.51</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" s="4">
         <v>5.44</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11" s="4">
         <v>3.24</v>
